--- a/simpsons_episodes.xlsx
+++ b/simpsons_episodes.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="simpsons_episodes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="2997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="3002">
   <si>
     <t>id</t>
   </si>
@@ -9010,6 +9010,21 @@
   </si>
   <si>
     <t xml:space="preserve"> http://www.simpsonsworld.com/video/310257731892</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>[Control + Shift + Enter in formula]</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -9493,8 +9508,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9838,10 +9854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M601"/>
+  <dimension ref="A1:AA601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9854,10 +9870,11 @@
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="13" max="13" width="50.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9898,7 +9915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -9938,8 +9955,14 @@
       <c r="M2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -9979,8 +10002,15 @@
       <c r="M3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P3">
+        <f t="array" ref="P3">MAX(LEN(B2:B1000))</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14</v>
       </c>
@@ -10020,8 +10050,15 @@
       <c r="M4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>2999</v>
+      </c>
+      <c r="P4">
+        <f t="array" ref="P4">MAX(LEN(L2:L1000))</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
@@ -10061,8 +10098,15 @@
       <c r="M5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>3000</v>
+      </c>
+      <c r="P5">
+        <f t="array" ref="P5">MAX(LEN(M2:M1000))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -10103,7 +10147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -10144,7 +10188,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23</v>
       </c>
@@ -10185,7 +10229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26</v>
       </c>
@@ -10226,7 +10270,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
@@ -10267,7 +10311,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30</v>
       </c>
@@ -10308,7 +10352,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32</v>
       </c>
@@ -10349,7 +10393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>35</v>
       </c>
@@ -10390,7 +10434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>37</v>
       </c>
@@ -10431,7 +10475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>39</v>
       </c>
@@ -10471,8 +10515,47 @@
       <c r="M15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>41</v>
       </c>
@@ -34500,8 +34583,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>